--- a/team_specific_matrix/Montana St._A.xlsx
+++ b/team_specific_matrix/Montana St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1592920353982301</v>
+        <v>0.1541501976284585</v>
       </c>
       <c r="C2">
-        <v>0.588495575221239</v>
+        <v>0.5889328063241107</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02654867256637168</v>
+        <v>0.02371541501976284</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1283185840707965</v>
+        <v>0.1264822134387352</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09734513274336283</v>
+        <v>0.1067193675889328</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01418439716312057</v>
+        <v>0.01257861635220126</v>
       </c>
       <c r="C3">
-        <v>0.04964539007092199</v>
+        <v>0.05031446540880503</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02127659574468085</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7588652482269503</v>
+        <v>0.7672955974842768</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1560283687943262</v>
+        <v>0.1509433962264151</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5333333333333333</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3666666666666666</v>
+        <v>0.3783783783783784</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0505050505050505</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0101010101010101</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07575757575757576</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2121212121212121</v>
+        <v>0.2341269841269841</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01515151515151515</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1868686868686869</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="R6">
-        <v>0.08585858585858586</v>
+        <v>0.07539682539682539</v>
       </c>
       <c r="S6">
-        <v>0.3636363636363636</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1219512195121951</v>
+        <v>0.116751269035533</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01829268292682927</v>
+        <v>0.02538071065989848</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04878048780487805</v>
+        <v>0.04568527918781726</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1158536585365854</v>
+        <v>0.116751269035533</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02439024390243903</v>
+        <v>0.02538071065989848</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1280487804878049</v>
+        <v>0.1319796954314721</v>
       </c>
       <c r="R7">
-        <v>0.1280487804878049</v>
+        <v>0.116751269035533</v>
       </c>
       <c r="S7">
-        <v>0.4146341463414634</v>
+        <v>0.4213197969543147</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,32 +852,32 @@
         <v>6</v>
       </c>
       <c r="B8">
+        <v>0.07520325203252033</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0.02032520325203252</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.06504065040650407</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
         <v>0.08333333333333333</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0.02450980392156863</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.06127450980392157</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0.07107843137254902</v>
-      </c>
       <c r="K8">
         <v>0</v>
       </c>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01470588235294118</v>
+        <v>0.01626016260162602</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1740196078431372</v>
+        <v>0.1788617886178862</v>
       </c>
       <c r="R8">
-        <v>0.1029411764705882</v>
+        <v>0.1036585365853658</v>
       </c>
       <c r="S8">
-        <v>0.4681372549019608</v>
+        <v>0.4573170731707317</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06716417910447761</v>
+        <v>0.07100591715976332</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.007462686567164179</v>
+        <v>0.005917159763313609</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.09701492537313433</v>
+        <v>0.106508875739645</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05223880597014925</v>
+        <v>0.04733727810650887</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02238805970149254</v>
+        <v>0.01775147928994083</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2164179104477612</v>
+        <v>0.1893491124260355</v>
       </c>
       <c r="R9">
-        <v>0.1343283582089552</v>
+        <v>0.1242603550295858</v>
       </c>
       <c r="S9">
-        <v>0.4029850746268657</v>
+        <v>0.4378698224852071</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1177094379639449</v>
+        <v>0.1129597197898424</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01590668080593849</v>
+        <v>0.01663747810858144</v>
       </c>
       <c r="E10">
-        <v>0.001060445387062566</v>
+        <v>0.001751313485113835</v>
       </c>
       <c r="F10">
-        <v>0.08483563096500531</v>
+        <v>0.08844133099824869</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08271474019088017</v>
+        <v>0.08143607705779335</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01696712619300106</v>
+        <v>0.01663747810858144</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1930010604453871</v>
+        <v>0.1961471103327496</v>
       </c>
       <c r="R10">
-        <v>0.09331919406150584</v>
+        <v>0.09194395796847636</v>
       </c>
       <c r="S10">
-        <v>0.3944856839872747</v>
+        <v>0.3940455341506129</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1379310344827586</v>
+        <v>0.1447368421052632</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08812260536398467</v>
+        <v>0.08552631578947369</v>
       </c>
       <c r="K11">
-        <v>0.1915708812260536</v>
+        <v>0.194078947368421</v>
       </c>
       <c r="L11">
-        <v>0.5632183908045977</v>
+        <v>0.555921052631579</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01915708812260536</v>
+        <v>0.01973684210526316</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7647058823529411</v>
+        <v>0.7634408602150538</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1633986928104575</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="K12">
-        <v>0.006535947712418301</v>
+        <v>0.005376344086021506</v>
       </c>
       <c r="L12">
-        <v>0.0261437908496732</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0392156862745098</v>
+        <v>0.04838709677419355</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.02439024390243903</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="G13">
-        <v>0.5121951219512195</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4390243902439024</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02439024390243903</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01515151515151515</v>
+        <v>0.025</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.202020202020202</v>
+        <v>0.1958333333333333</v>
       </c>
       <c r="I15">
-        <v>0.07575757575757576</v>
+        <v>0.07916666666666666</v>
       </c>
       <c r="J15">
-        <v>0.3434343434343434</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="K15">
-        <v>0.08080808080808081</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01515151515151515</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0505050505050505</v>
+        <v>0.05</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2171717171717172</v>
+        <v>0.2125</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02040816326530612</v>
+        <v>0.01796407185628742</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.217687074829932</v>
+        <v>0.2035928143712575</v>
       </c>
       <c r="I16">
-        <v>0.04761904761904762</v>
+        <v>0.05389221556886228</v>
       </c>
       <c r="J16">
-        <v>0.4285714285714285</v>
+        <v>0.437125748502994</v>
       </c>
       <c r="K16">
-        <v>0.1224489795918367</v>
+        <v>0.1317365269461078</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.006802721088435374</v>
+        <v>0.01197604790419162</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05442176870748299</v>
+        <v>0.04790419161676647</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1020408163265306</v>
+        <v>0.09580838323353294</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02359882005899705</v>
+        <v>0.01932367149758454</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2123893805309734</v>
+        <v>0.2077294685990338</v>
       </c>
       <c r="I17">
-        <v>0.06194690265486726</v>
+        <v>0.06763285024154589</v>
       </c>
       <c r="J17">
-        <v>0.4188790560471977</v>
+        <v>0.4323671497584541</v>
       </c>
       <c r="K17">
-        <v>0.08554572271386431</v>
+        <v>0.0748792270531401</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01769911504424779</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="N17">
-        <v>0.002949852507374631</v>
+        <v>0.002415458937198068</v>
       </c>
       <c r="O17">
-        <v>0.07669616519174041</v>
+        <v>0.07246376811594203</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1002949852507375</v>
+        <v>0.108695652173913</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01630434782608696</v>
+        <v>0.01382488479262673</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2282608695652174</v>
+        <v>0.2258064516129032</v>
       </c>
       <c r="I18">
-        <v>0.08152173913043478</v>
+        <v>0.08755760368663594</v>
       </c>
       <c r="J18">
-        <v>0.3641304347826087</v>
+        <v>0.3640552995391705</v>
       </c>
       <c r="K18">
-        <v>0.1195652173913044</v>
+        <v>0.1105990783410138</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01630434782608696</v>
+        <v>0.02304147465437788</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.09239130434782608</v>
+        <v>0.08755760368663594</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08152173913043478</v>
+        <v>0.08755760368663594</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01773399014778325</v>
+        <v>0.02312599681020734</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2216748768472906</v>
+        <v>0.2129186602870813</v>
       </c>
       <c r="I19">
-        <v>0.07389162561576355</v>
+        <v>0.07177033492822966</v>
       </c>
       <c r="J19">
-        <v>0.3596059113300493</v>
+        <v>0.3492822966507177</v>
       </c>
       <c r="K19">
-        <v>0.1221674876847291</v>
+        <v>0.1180223285486443</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02857142857142857</v>
+        <v>0.02791068580542265</v>
       </c>
       <c r="N19">
-        <v>0.0009852216748768472</v>
+        <v>0.001594896331738437</v>
       </c>
       <c r="O19">
-        <v>0.08177339901477833</v>
+        <v>0.08373205741626795</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09359605911330049</v>
+        <v>0.1116427432216906</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Montana St._A.xlsx
+++ b/team_specific_matrix/Montana St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1541501976284585</v>
+        <v>0.1543859649122807</v>
       </c>
       <c r="C2">
-        <v>0.5889328063241107</v>
+        <v>0.5859649122807018</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02371541501976284</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1264822134387352</v>
+        <v>0.1192982456140351</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1067193675889328</v>
+        <v>0.1192982456140351</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01257861635220126</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="C3">
-        <v>0.05031446540880503</v>
+        <v>0.06111111111111111</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01886792452830189</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7672955974842768</v>
+        <v>0.7444444444444445</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1509433962264151</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1081081081081081</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5135135135135135</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3783783783783784</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04761904761904762</v>
+        <v>0.04810996563573883</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0119047619047619</v>
+        <v>0.01374570446735395</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08333333333333333</v>
+        <v>0.08934707903780069</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2341269841269841</v>
+        <v>0.2336769759450172</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01587301587301587</v>
+        <v>0.01374570446735395</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1746031746031746</v>
+        <v>0.1718213058419244</v>
       </c>
       <c r="R6">
-        <v>0.07539682539682539</v>
+        <v>0.06872852233676977</v>
       </c>
       <c r="S6">
-        <v>0.3571428571428572</v>
+        <v>0.3608247422680412</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.116751269035533</v>
+        <v>0.1210762331838565</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02538071065989848</v>
+        <v>0.02690582959641256</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04568527918781726</v>
+        <v>0.04484304932735426</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.116751269035533</v>
+        <v>0.1255605381165919</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02538071065989848</v>
+        <v>0.02690582959641256</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1319796954314721</v>
+        <v>0.1300448430493273</v>
       </c>
       <c r="R7">
-        <v>0.116751269035533</v>
+        <v>0.1076233183856502</v>
       </c>
       <c r="S7">
-        <v>0.4213197969543147</v>
+        <v>0.4170403587443946</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07520325203252033</v>
+        <v>0.07462686567164178</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02032520325203252</v>
+        <v>0.01865671641791045</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06504065040650407</v>
+        <v>0.06529850746268656</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08333333333333333</v>
+        <v>0.07835820895522388</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01626016260162602</v>
+        <v>0.02238805970149254</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1788617886178862</v>
+        <v>0.1828358208955224</v>
       </c>
       <c r="R8">
-        <v>0.1036585365853658</v>
+        <v>0.1156716417910448</v>
       </c>
       <c r="S8">
-        <v>0.4573170731707317</v>
+        <v>0.4421641791044776</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07100591715976332</v>
+        <v>0.08900523560209424</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.005917159763313609</v>
+        <v>0.005235602094240838</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.106508875739645</v>
+        <v>0.09947643979057591</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.04733727810650887</v>
+        <v>0.04712041884816754</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01775147928994083</v>
+        <v>0.01570680628272251</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1893491124260355</v>
+        <v>0.1780104712041885</v>
       </c>
       <c r="R9">
-        <v>0.1242603550295858</v>
+        <v>0.1256544502617801</v>
       </c>
       <c r="S9">
-        <v>0.4378698224852071</v>
+        <v>0.4397905759162304</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1129597197898424</v>
+        <v>0.1115475255302435</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01663747810858144</v>
+        <v>0.0180675569520817</v>
       </c>
       <c r="E10">
-        <v>0.001751313485113835</v>
+        <v>0.001571091908876669</v>
       </c>
       <c r="F10">
-        <v>0.08844133099824869</v>
+        <v>0.09190887666928516</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08143607705779335</v>
+        <v>0.08091123330714847</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01663747810858144</v>
+        <v>0.01649646504320503</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1961471103327496</v>
+        <v>0.1940298507462687</v>
       </c>
       <c r="R10">
-        <v>0.09194395796847636</v>
+        <v>0.09347996857816182</v>
       </c>
       <c r="S10">
-        <v>0.3940455341506129</v>
+        <v>0.391987431264729</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1447368421052632</v>
+        <v>0.1457725947521866</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08552631578947369</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="K11">
-        <v>0.194078947368421</v>
+        <v>0.19533527696793</v>
       </c>
       <c r="L11">
-        <v>0.555921052631579</v>
+        <v>0.5568513119533528</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01973684210526316</v>
+        <v>0.02040816326530612</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7634408602150538</v>
+        <v>0.7570093457943925</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1612903225806452</v>
+        <v>0.1588785046728972</v>
       </c>
       <c r="K12">
-        <v>0.005376344086021506</v>
+        <v>0.004672897196261682</v>
       </c>
       <c r="L12">
-        <v>0.02150537634408602</v>
+        <v>0.03738317757009346</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04838709677419355</v>
+        <v>0.04205607476635514</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.01818181818181818</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="G13">
-        <v>0.5454545454545454</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3454545454545455</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.09090909090909091</v>
+        <v>0.0847457627118644</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.025</v>
+        <v>0.02898550724637681</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1958333333333333</v>
+        <v>0.1884057971014493</v>
       </c>
       <c r="I15">
-        <v>0.07916666666666666</v>
+        <v>0.07608695652173914</v>
       </c>
       <c r="J15">
-        <v>0.3541666666666667</v>
+        <v>0.3623188405797101</v>
       </c>
       <c r="K15">
-        <v>0.06666666666666667</v>
+        <v>0.07608695652173914</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01666666666666667</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05</v>
+        <v>0.04710144927536232</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2125</v>
+        <v>0.2065217391304348</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01796407185628742</v>
+        <v>0.02162162162162162</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2035928143712575</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="I16">
-        <v>0.05389221556886228</v>
+        <v>0.04864864864864865</v>
       </c>
       <c r="J16">
-        <v>0.437125748502994</v>
+        <v>0.4270270270270271</v>
       </c>
       <c r="K16">
-        <v>0.1317365269461078</v>
+        <v>0.1405405405405405</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01197604790419162</v>
+        <v>0.01081081081081081</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04790419161676647</v>
+        <v>0.04864864864864865</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.09580838323353294</v>
+        <v>0.1135135135135135</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01932367149758454</v>
+        <v>0.02183406113537118</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2077294685990338</v>
+        <v>0.2008733624454148</v>
       </c>
       <c r="I17">
-        <v>0.06763285024154589</v>
+        <v>0.07205240174672489</v>
       </c>
       <c r="J17">
-        <v>0.4323671497584541</v>
+        <v>0.425764192139738</v>
       </c>
       <c r="K17">
-        <v>0.0748792270531401</v>
+        <v>0.07205240174672489</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01449275362318841</v>
+        <v>0.01528384279475982</v>
       </c>
       <c r="N17">
-        <v>0.002415458937198068</v>
+        <v>0.002183406113537118</v>
       </c>
       <c r="O17">
-        <v>0.07246376811594203</v>
+        <v>0.07423580786026202</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.108695652173913</v>
+        <v>0.1157205240174673</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01382488479262673</v>
+        <v>0.01626016260162602</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2258064516129032</v>
+        <v>0.2154471544715447</v>
       </c>
       <c r="I18">
-        <v>0.08755760368663594</v>
+        <v>0.08130081300813008</v>
       </c>
       <c r="J18">
-        <v>0.3640552995391705</v>
+        <v>0.3617886178861789</v>
       </c>
       <c r="K18">
-        <v>0.1105990783410138</v>
+        <v>0.1219512195121951</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02304147465437788</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08755760368663594</v>
+        <v>0.08130081300813008</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08755760368663594</v>
+        <v>0.0975609756097561</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02312599681020734</v>
+        <v>0.02514367816091954</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2129186602870813</v>
+        <v>0.2119252873563219</v>
       </c>
       <c r="I19">
-        <v>0.07177033492822966</v>
+        <v>0.07471264367816093</v>
       </c>
       <c r="J19">
-        <v>0.3492822966507177</v>
+        <v>0.3498563218390804</v>
       </c>
       <c r="K19">
-        <v>0.1180223285486443</v>
+        <v>0.1163793103448276</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02791068580542265</v>
+        <v>0.02658045977011494</v>
       </c>
       <c r="N19">
-        <v>0.001594896331738437</v>
+        <v>0.001436781609195402</v>
       </c>
       <c r="O19">
-        <v>0.08373205741626795</v>
+        <v>0.08764367816091954</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1116427432216906</v>
+        <v>0.1063218390804598</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Montana St._A.xlsx
+++ b/team_specific_matrix/Montana St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1543859649122807</v>
+        <v>0.1551724137931035</v>
       </c>
       <c r="C2">
-        <v>0.5859649122807018</v>
+        <v>0.5827586206896552</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02105263157894737</v>
+        <v>0.02068965517241379</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1192982456140351</v>
+        <v>0.1206896551724138</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1192982456140351</v>
+        <v>0.1206896551724138</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01111111111111111</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="C3">
-        <v>0.06111111111111111</v>
+        <v>0.06043956043956044</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03333333333333333</v>
+        <v>0.03296703296703297</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7444444444444445</v>
+        <v>0.7472527472527473</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.15</v>
+        <v>0.1483516483516484</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09523809523809523</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5476190476190477</v>
+        <v>0.5348837209302325</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3571428571428572</v>
+        <v>0.3720930232558139</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04810996563573883</v>
+        <v>0.04983388704318937</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01374570446735395</v>
+        <v>0.0132890365448505</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08934707903780069</v>
+        <v>0.08637873754152824</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2336769759450172</v>
+        <v>0.2325581395348837</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01374570446735395</v>
+        <v>0.0132890365448505</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1718213058419244</v>
+        <v>0.1661129568106312</v>
       </c>
       <c r="R6">
-        <v>0.06872852233676977</v>
+        <v>0.07308970099667775</v>
       </c>
       <c r="S6">
-        <v>0.3608247422680412</v>
+        <v>0.3654485049833887</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1210762331838565</v>
+        <v>0.1194690265486726</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02690582959641256</v>
+        <v>0.02654867256637168</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04484304932735426</v>
+        <v>0.04424778761061947</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1255605381165919</v>
+        <v>0.1283185840707965</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02690582959641256</v>
+        <v>0.02654867256637168</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1300448430493273</v>
+        <v>0.1327433628318584</v>
       </c>
       <c r="R7">
-        <v>0.1076233183856502</v>
+        <v>0.1061946902654867</v>
       </c>
       <c r="S7">
-        <v>0.4170403587443946</v>
+        <v>0.415929203539823</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07462686567164178</v>
+        <v>0.0718132854578097</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01865671641791045</v>
+        <v>0.01795332136445242</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06529850746268656</v>
+        <v>0.06822262118491922</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07835820895522388</v>
+        <v>0.07540394973070018</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02238805970149254</v>
+        <v>0.02154398563734291</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1828358208955224</v>
+        <v>0.1813285457809695</v>
       </c>
       <c r="R8">
-        <v>0.1156716417910448</v>
+        <v>0.1202872531418312</v>
       </c>
       <c r="S8">
-        <v>0.4421641791044776</v>
+        <v>0.4434470377019749</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08900523560209424</v>
+        <v>0.08717948717948718</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.005235602094240838</v>
+        <v>0.005128205128205128</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.09947643979057591</v>
+        <v>0.09743589743589744</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.04712041884816754</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01570680628272251</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1780104712041885</v>
+        <v>0.1743589743589744</v>
       </c>
       <c r="R9">
-        <v>0.1256544502617801</v>
+        <v>0.1230769230769231</v>
       </c>
       <c r="S9">
-        <v>0.4397905759162304</v>
+        <v>0.4461538461538462</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1115475255302435</v>
+        <v>0.1096725057121097</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0180675569520817</v>
+        <v>0.01827875095201828</v>
       </c>
       <c r="E10">
-        <v>0.001571091908876669</v>
+        <v>0.001523229246001523</v>
       </c>
       <c r="F10">
-        <v>0.09190887666928516</v>
+        <v>0.09215536938309216</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08091123330714847</v>
+        <v>0.07996953541507996</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01649646504320503</v>
+        <v>0.01675552170601675</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1940298507462687</v>
+        <v>0.1964965727341965</v>
       </c>
       <c r="R10">
-        <v>0.09347996857816182</v>
+        <v>0.09520182787509521</v>
       </c>
       <c r="S10">
-        <v>0.391987431264729</v>
+        <v>0.38994668697639</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1457725947521866</v>
+        <v>0.1494252873563219</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08163265306122448</v>
+        <v>0.08045977011494253</v>
       </c>
       <c r="K11">
-        <v>0.19533527696793</v>
+        <v>0.1954022988505747</v>
       </c>
       <c r="L11">
-        <v>0.5568513119533528</v>
+        <v>0.5545977011494253</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02040816326530612</v>
+        <v>0.02011494252873563</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7570093457943925</v>
+        <v>0.7592592592592593</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1588785046728972</v>
+        <v>0.1574074074074074</v>
       </c>
       <c r="K12">
-        <v>0.004672897196261682</v>
+        <v>0.004629629629629629</v>
       </c>
       <c r="L12">
-        <v>0.03738317757009346</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04205607476635514</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.01694915254237288</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="G13">
-        <v>0.5423728813559322</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3559322033898305</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.0847457627118644</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02898550724637681</v>
+        <v>0.02826855123674912</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1884057971014493</v>
+        <v>0.1908127208480565</v>
       </c>
       <c r="I15">
-        <v>0.07608695652173914</v>
+        <v>0.07773851590106007</v>
       </c>
       <c r="J15">
-        <v>0.3623188405797101</v>
+        <v>0.3604240282685512</v>
       </c>
       <c r="K15">
-        <v>0.07608695652173914</v>
+        <v>0.07773851590106007</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01449275362318841</v>
+        <v>0.01413427561837456</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04710144927536232</v>
+        <v>0.04593639575971731</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2065217391304348</v>
+        <v>0.2049469964664311</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02162162162162162</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1891891891891892</v>
+        <v>0.1914893617021277</v>
       </c>
       <c r="I16">
-        <v>0.04864864864864865</v>
+        <v>0.04787234042553191</v>
       </c>
       <c r="J16">
-        <v>0.4270270270270271</v>
+        <v>0.425531914893617</v>
       </c>
       <c r="K16">
-        <v>0.1405405405405405</v>
+        <v>0.1382978723404255</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01081081081081081</v>
+        <v>0.01063829787234043</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04864864864864865</v>
+        <v>0.05319148936170213</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1135135135135135</v>
+        <v>0.1117021276595745</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02183406113537118</v>
+        <v>0.02123142250530785</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2008733624454148</v>
+        <v>0.2038216560509554</v>
       </c>
       <c r="I17">
-        <v>0.07205240174672489</v>
+        <v>0.07006369426751592</v>
       </c>
       <c r="J17">
-        <v>0.425764192139738</v>
+        <v>0.4309978768577495</v>
       </c>
       <c r="K17">
-        <v>0.07205240174672489</v>
+        <v>0.07006369426751592</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01528384279475982</v>
+        <v>0.0148619957537155</v>
       </c>
       <c r="N17">
-        <v>0.002183406113537118</v>
+        <v>0.002123142250530786</v>
       </c>
       <c r="O17">
-        <v>0.07423580786026202</v>
+        <v>0.07218683651804671</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1157205240174673</v>
+        <v>0.1146496815286624</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01626016260162602</v>
+        <v>0.01544401544401544</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2154471544715447</v>
+        <v>0.2123552123552123</v>
       </c>
       <c r="I18">
-        <v>0.08130081300813008</v>
+        <v>0.07722007722007722</v>
       </c>
       <c r="J18">
-        <v>0.3617886178861789</v>
+        <v>0.3629343629343629</v>
       </c>
       <c r="K18">
-        <v>0.1219512195121951</v>
+        <v>0.1235521235521236</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02439024390243903</v>
+        <v>0.02316602316602316</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08130081300813008</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.0975609756097561</v>
+        <v>0.1042471042471042</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02514367816091954</v>
+        <v>0.02512212142358688</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2119252873563219</v>
+        <v>0.2135380321004885</v>
       </c>
       <c r="I19">
-        <v>0.07471264367816093</v>
+        <v>0.07466852756454989</v>
       </c>
       <c r="J19">
-        <v>0.3498563218390804</v>
+        <v>0.3517096999302163</v>
       </c>
       <c r="K19">
-        <v>0.1163793103448276</v>
+        <v>0.1137473831123517</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02658045977011494</v>
+        <v>0.02651779483600837</v>
       </c>
       <c r="N19">
-        <v>0.001436781609195402</v>
+        <v>0.001395673412421493</v>
       </c>
       <c r="O19">
-        <v>0.08764367816091954</v>
+        <v>0.08792742498255408</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1063218390804598</v>
+        <v>0.1053733426378227</v>
       </c>
     </row>
   </sheetData>
